--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/15/seed5/result_data_KNN.xlsx
@@ -485,13 +485,13 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.486</v>
+        <v>-13.337</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>15.928</v>
+        <v>16.155</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.88</v>
+        <v>4.872</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.778</v>
+        <v>-12.21</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.408</v>
+        <v>16.485</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17</v>
+        <v>17.022</v>
       </c>
     </row>
     <row r="26">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.23</v>
+        <v>-11.782</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.404</v>
+        <v>5.422</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.234</v>
+        <v>15.722</v>
       </c>
     </row>
     <row r="31">
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.052</v>
+        <v>-12.545</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.981999999999999</v>
+        <v>6.799000000000001</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.062</v>
+        <v>-12.311</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.036000000000001</v>
+        <v>8.673999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.606</v>
+        <v>-13.665</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.279999999999999</v>
+        <v>5.565</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.456</v>
+        <v>16.755</v>
       </c>
     </row>
     <row r="45">
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.826</v>
+        <v>-12.566</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.55</v>
+        <v>6.592999999999999</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>15.824</v>
+        <v>16.058</v>
       </c>
     </row>
     <row r="48">
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.968</v>
+        <v>-10.937</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.758</v>
+        <v>5.118</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.761</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.07</v>
+        <v>4.49</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.697</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.674</v>
+        <v>16.569</v>
       </c>
     </row>
     <row r="59">
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.818</v>
+        <v>5.332</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.915999999999999</v>
+        <v>5.332</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.926</v>
+        <v>5.327</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.35</v>
+        <v>16.482</v>
       </c>
     </row>
     <row r="79">
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.444</v>
+        <v>-13.096</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.884</v>
+        <v>5.315</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.1</v>
+        <v>-14.127</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.052</v>
+        <v>16.338</v>
       </c>
     </row>
     <row r="85">
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.856</v>
+        <v>4.94</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.128</v>
+        <v>17.158</v>
       </c>
     </row>
     <row r="90">
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.28</v>
+        <v>5.581</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.328</v>
+        <v>17.429</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.338</v>
+        <v>17.373</v>
       </c>
     </row>
     <row r="93">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.218</v>
+        <v>5.621</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.706</v>
+        <v>16.329</v>
       </c>
     </row>
     <row r="97">
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>5.351999999999999</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.384</v>
+        <v>-12.747</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,13 +2168,13 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.65</v>
+        <v>-12.916</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.182</v>
+        <v>16.337</v>
       </c>
     </row>
   </sheetData>
